--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -1,76 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\stock\sh\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13164"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13164" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
-  <si>
-    <t>2025-04-23 ~ 2025-04-24</t>
-  </si>
-  <si>
-    <t>0423 ~ 0424</t>
-  </si>
-  <si>
-    <t>0424 ~ 0425</t>
-  </si>
-  <si>
-    <t>https://xueqiu.com/S/SH603351</t>
-  </si>
-  <si>
-    <t>https://xueqiu.com/S/SH600101</t>
-  </si>
-  <si>
-    <t>https://xueqiu.com/S/SH603221</t>
-  </si>
-  <si>
-    <t>https://xueqiu.com/S/SH603630</t>
-  </si>
-  <si>
-    <t>https://xueqiu.com/S/SH603697</t>
-  </si>
-  <si>
-    <t>0424 - 0425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,21 +52,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,87 +413,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col width="30.109375" customWidth="1" min="1" max="1"/>
+    <col width="33.33203125" customWidth="1" min="2" max="2"/>
+    <col width="16.44140625" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="16.21875" customWidth="1" min="5" max="5"/>
+    <col width="23.6640625" customWidth="1" min="6" max="6"/>
+    <col width="23.109375" customWidth="1" min="7" max="7"/>
+    <col width="30.44140625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0428 - 0429</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025-04-23 ~ 2025-04-24</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0423 ~ 0424</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0424 ~ 0425</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>0424 ~ 0425</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>0423 ~ 0424</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>0423 ~ 0424</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>0423 ~ 0424</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>0424 - 0425</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600166</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600101</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603221</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603221</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603221</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH605080</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603221</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603697</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="30.109375" customWidth="1" min="1" max="1"/>
     <col width="33.33203125" customWidth="1" min="2" max="2"/>
@@ -439,45 +439,60 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0506 - 0507</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0430 - 0506</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0502 - 0505</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -486,47 +501,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH600988</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600051</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600051</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600101</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -535,12 +575,38 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH600301</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600301</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600396</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,13 +418,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="30.109375" customWidth="1" min="1" max="1"/>
     <col width="33.33203125" customWidth="1" min="2" max="2"/>
@@ -439,60 +439,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0508 - 0509</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0507 - 0508</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -501,45 +511,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603216</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -548,25 +568,30 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH600392</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -575,22 +600,32 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603015</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603073</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
@@ -599,14 +634,33 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603215</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603344</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
     </row>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,70 +439,75 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0513 - 0514</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -511,154 +516,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH600371</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600758</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH600805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,75 +439,80 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0514 - 0515</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -516,60 +521,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603665</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600371</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -578,35 +588,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603843</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600758</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -615,70 +630,75 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH600721</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH600805</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,80 +439,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0519 - 0520</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0514 - 0515</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -521,65 +526,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603190</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603665</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600371</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -588,117 +598,122 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603276</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603843</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600758</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600721</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600805</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,85 +439,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0520 - 0521</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0514 - 0515</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -526,70 +531,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH601187</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603190</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603665</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600371</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
@@ -598,122 +608,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603579</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603276</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603843</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600758</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600721</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600805</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,90 +439,95 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0522 - 0523</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0520 - 0521</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0514 - 0515</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -531,204 +536,209 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603163</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH601187</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603190</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603665</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600371</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603579</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603276</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603843</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600758</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600721</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600805</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>

--- a/instance/stock/sh/sh.xlsx
+++ b/instance/stock/sh/sh.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -439,95 +439,105 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0526 - 0527</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0523 - 0526</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>0522 - 0523</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0520 - 0521</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0514 - 0515</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>2025-04-23 ~ 2025-04-24</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>0424 ~ 0425</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>0423 ~ 0424</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
@@ -536,209 +546,234 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603109</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH601083</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603163</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH601187</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603190</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603665</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600371</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603216</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600336</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600988</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600166</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603351</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603538</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SH603207</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SH603579</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603276</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603843</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600758</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600392</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600101</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH605080</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603630</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603221</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SH603739</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600721</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600805</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603015</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603697</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603073</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600301</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603215</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600396</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600278</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH603344</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SH600051</t>
         </is>
